--- a/Data/Rural-population-households-density-by-county.xlsx
+++ b/Data/Rural-population-households-density-by-county.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTE-Datathon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A7626-901C-439C-B2A0-529B6371F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42481848-B427-4156-BFE4-1AA0A996762B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,10 @@
     <sheet name="Rural pop by sex and county" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rural pop by sex and county'!$A$1:$J$48</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -582,14 +585,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -634,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -666,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,7 +699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,7 +731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -794,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -826,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -858,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -890,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -922,7 +923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -954,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -986,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>56</v>
       </c>
@@ -2139,6 +2140,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J48" xr:uid="{7EE772C4-7650-4DD6-885C-45267FFF05DE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BARINGO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
